--- a/Practica BI/Practica_BI.xlsx
+++ b/Practica BI/Practica_BI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frenc\DAM2\REPOSITORIOS\SGE\Practica BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669E70AD-A765-4FC7-91F6-3D3806E3667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41690E1-1ABB-45C2-983D-604B45B385C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{0A1AFDE7-1A07-45CD-8280-EA9B0DA6DF81}"/>
   </bookViews>
@@ -63,12 +63,6 @@
 fórmula anterior para obtener una predicción más real:</t>
   </si>
   <si>
-    <t>en este caso haciendo una media de las practicas y examenes ya evaluados durante el curso</t>
-  </si>
-  <si>
-    <t>Damos valores deductivos a las practicas y examenes que no se han evaluado o realizado aun,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vamos a aplicar la segunda fórmula de la página anterior ya que se ajusta mejor a la nota final </t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t xml:space="preserve">nota final aproximada de la segunda evaluación: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damos valores deductivos a las practicas y examenes que no se han evaluado o realizado aun. </t>
+  </si>
+  <si>
+    <t>en este caso haciendo una media de las practicas y examenes ya evaluados durante el curso obtenemos un 8,4 para la practica 3 y un 8 para el examen final</t>
   </si>
 </sst>
 </file>
@@ -129,40 +129,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,67 +481,66 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>8.33</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
     </row>
@@ -555,65 +549,69 @@
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <f>SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100)</f>
         <v>8.0990000000000002</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="13" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B9:C9"/>
@@ -621,10 +619,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -639,145 +633,150 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="9" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" customWidth="1"/>
+    <col min="13" max="13" width="50.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>8.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>8.4600000000000009</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <f>SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100)</f>
         <v>8.1379999999999999</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>13</v>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5">
         <f>SUM(SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100),1)</f>
         <v>9.1379999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practica BI/Practica_BI.xlsx
+++ b/Practica BI/Practica_BI.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frenc\DAM2\REPOSITORIOS\SGE\Practica BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\SGE\Practica BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41690E1-1ABB-45C2-983D-604B45B385C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD54804-7C60-4799-AA2C-F24B3EDF453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{0A1AFDE7-1A07-45CD-8280-EA9B0DA6DF81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0A1AFDE7-1A07-45CD-8280-EA9B0DA6DF81}"/>
   </bookViews>
   <sheets>
     <sheet name="1ª Evaluación" sheetId="1" r:id="rId1"/>
     <sheet name="2ª Evaluación" sheetId="2" r:id="rId2"/>
+    <sheet name="Nota Final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>PRIMERA EVALUACIÓN</t>
   </si>
@@ -66,23 +67,107 @@
     <t xml:space="preserve">Vamos a aplicar la segunda fórmula de la página anterior ya que se ajusta mejor a la nota final </t>
   </si>
   <si>
-    <t>"=SUMA(SUMA(PRODUCTO(C7;30)/100;PRODUCTO(E7;70)/100);1)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">nota final aproximada de la segunda evaluación: </t>
   </si>
   <si>
     <t xml:space="preserve">Damos valores deductivos a las practicas y examenes que no se han evaluado o realizado aun. </t>
   </si>
   <si>
-    <t>en este caso haciendo una media de las practicas y examenes ya evaluados durante el curso obtenemos un 8,4 para la practica 3 y un 8 para el examen final</t>
+    <t>practica 4</t>
+  </si>
+  <si>
+    <t>en este caso haciendo una media de las practicas y examenes ya evaluados durante el curso obtenemos un 8,4 para la practica 3 y 4 y un 8 para el examen final</t>
+  </si>
+  <si>
+    <t>NOTA FINAL</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>Actitud</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>peso: 20%</t>
+  </si>
+  <si>
+    <t>peso: 30%</t>
+  </si>
+  <si>
+    <t>peso: 50%</t>
+  </si>
+  <si>
+    <t>total a sumar:</t>
+  </si>
+  <si>
+    <t>Se han dado valores deductivos al valor de la asistencia, participación y actitud a partir</t>
+  </si>
+  <si>
+    <t>del punto extra aproximado calculado anteriormente y se le han asignado pesos aproximados a cada campo</t>
+  </si>
+  <si>
+    <t>"=SUMA(SUMA(PRODUCTO(C7;30)/100;PRODUCTO(E7;70)/100);0,84)"</t>
+  </si>
+  <si>
+    <t>NOTA FINAL SEGÚN CALCULOS:</t>
+  </si>
+  <si>
+    <t>puntos</t>
+  </si>
+  <si>
+    <t>"=SUMA(SUMA(PRODUCTO(C7;30)/100;PRODUCTO(E7;70)/100);0,8)"</t>
+  </si>
+  <si>
+    <t>En esta evaluación cre que he estado un poco menos presente en la asignatura en general</t>
+  </si>
+  <si>
+    <t>Por eso he cambiado los valores de asistencia, participación y actitud, pero no sus pesos.</t>
+  </si>
+  <si>
+    <t>Creo que para calcular la nota final solo es necesario hacer una media de las dos anteriores asignandoles un peso</t>
+  </si>
+  <si>
+    <t>Nota Evaluación 1</t>
+  </si>
+  <si>
+    <t>Nota evaluación 2</t>
+  </si>
+  <si>
+    <t>equivalente a cada una (o pesos diferentes, si es que la segunda vale más que la primera, dato que desconozco),</t>
+  </si>
+  <si>
+    <t>ya que los valores de las practicas, examenes, asistencia, etc… ya han sido tenidos en cuenta en la nota de ambas evaluaciones,</t>
+  </si>
+  <si>
+    <t>por lo que no creo que esté bien tomarlas en cuenta a la hora de obtener la nota final del curso mediante la media de las dos evaluaciones</t>
+  </si>
+  <si>
+    <t>Calculo nota final:</t>
+  </si>
+  <si>
+    <t>Teniendo en cuenta que en los informes solo se ponen valores enteros</t>
+  </si>
+  <si>
+    <t>podemos concluir que la nota final del curso estará rondando el 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota final del informe: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +207,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -140,10 +243,19 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,11 +264,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,28 +592,45 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -507,6 +641,21 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="15">
+        <v>100</v>
+      </c>
+      <c r="G4" s="15">
+        <v>80</v>
+      </c>
+      <c r="H4" s="15">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -517,6 +666,18 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -525,10 +686,17 @@
       <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14">
+        <f>F4*0.3+G4*0.5+H4*0.2</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -543,47 +711,66 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <f>SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100)</f>
         <v>8.0990000000000002</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D9+H7</f>
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -595,22 +782,21 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B10:I10"/>
@@ -619,6 +805,8 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,38 +814,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B6576-E37D-45E3-BB32-8E451AFEC0C5}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="9" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="38.140625" customWidth="1"/>
     <col min="13" max="13" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,8 +870,23 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="15">
+        <v>98</v>
+      </c>
+      <c r="G4" s="15">
+        <v>75</v>
+      </c>
+      <c r="H4" s="15">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -676,35 +895,47 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>8.4</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14">
+        <f>F4*0.3+G4*0.5+H4*0.2</f>
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="1">
-        <v>8.4600000000000009</v>
+        <v>8.4</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -712,71 +943,199 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f>(C4+C5+C6+C7)/4</f>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="J8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <f>SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100)</f>
-        <v>8.1379999999999999</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <f>SUM(PRODUCT(C8,30)/100,PRODUCT(E7,70)/100)</f>
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5">
-        <f>SUM(SUM(PRODUCT(C7,30)/100,PRODUCT(E7,70)/100),1)</f>
-        <v>9.1379999999999999</v>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5">
+        <f>SUM(SUM(PRODUCT(C8,30)/100,PRODUCT(E7,70)/100),H7)</f>
+        <v>8.9450000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C81891-1CAC-4DC4-9252-856A362D3025}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>8.9450000000000003</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
+        <f>(B4+D4)/2</f>
+        <v>8.9725000000000001</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
